--- a/Check.xlsx
+++ b/Check.xlsx
@@ -440,7 +440,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -477,15 +477,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -493,16 +493,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -820,7 +816,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="51.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.63"/>
@@ -964,7 +960,7 @@
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -978,7 +974,7 @@
     <row r="6" customFormat="false" ht="25.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -993,7 +989,7 @@
       <c r="A7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -1033,7 +1029,7 @@
       <c r="B8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="12" t="s">
@@ -1070,16 +1066,16 @@
     <row r="9" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="12" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="8"/>
@@ -1107,16 +1103,16 @@
     <row r="10" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="12" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="8"/>
@@ -1144,16 +1140,16 @@
     <row r="11" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="8"/>
@@ -1181,16 +1177,16 @@
     <row r="12" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="12" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="8"/>
@@ -1220,7 +1216,7 @@
       <c r="B13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="12" t="s">
@@ -1257,7 +1253,7 @@
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -1266,7 +1262,7 @@
       <c r="E14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="8"/>
@@ -1294,7 +1290,7 @@
     <row r="15" customFormat="false" ht="25.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -1303,7 +1299,7 @@
       <c r="E15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="8"/>
@@ -1831,7 +1827,7 @@
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>49</v>
       </c>
       <c r="D30" s="12" t="s">
@@ -1868,7 +1864,7 @@
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="12" t="s">
@@ -2294,7 +2290,7 @@
     <row r="43" customFormat="false" ht="25.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D43" s="12" t="s">
@@ -2375,7 +2371,7 @@
       <c r="E45" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="19" t="s">
+      <c r="F45" s="18" t="s">
         <v>50</v>
       </c>
       <c r="G45" s="8"/>
@@ -2412,7 +2408,7 @@
       <c r="E46" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="F46" s="18" t="s">
         <v>50</v>
       </c>
       <c r="G46" s="8"/>
@@ -2591,7 +2587,7 @@
       <c r="E51" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="F51" s="18" t="s">
         <v>72</v>
       </c>
       <c r="G51" s="8"/>
@@ -2628,7 +2624,7 @@
       <c r="E52" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="19" t="s">
+      <c r="F52" s="18" t="s">
         <v>72</v>
       </c>
       <c r="G52" s="8"/>
@@ -2665,7 +2661,7 @@
       <c r="E53" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="19" t="s">
+      <c r="F53" s="18" t="s">
         <v>72</v>
       </c>
       <c r="G53" s="8"/>
@@ -2702,7 +2698,7 @@
       <c r="E54" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="19" t="s">
+      <c r="F54" s="18" t="s">
         <v>72</v>
       </c>
       <c r="G54" s="8"/>
@@ -2739,7 +2735,7 @@
       <c r="E55" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="19" t="s">
+      <c r="F55" s="18" t="s">
         <v>72</v>
       </c>
       <c r="G55" s="8"/>
@@ -31456,7 +31452,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{E77C70E9-B05B-4F65-8A86-6EBA9F664F9A}">
+          <x14:cfRule type="expression" priority="2" id="{2EA664E5-1229-4CF4-872E-717E4AC2EC40}">
             <xm:f>$D5:$D50="Failed"</xm:f>
             <x14:dxf>
               <font>
@@ -31479,7 +31475,7 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="3" id="{C971F0FC-5B9F-4639-BEA0-901E15B03895}">
+          <x14:cfRule type="expression" priority="3" id="{84117B7F-6537-40E3-9871-C7849FB0D540}">
             <xm:f>$D5:$D50="Success"</xm:f>
             <x14:dxf>
               <font>
